--- a/ML_7/SMART_dataset.xlsx
+++ b/ML_7/SMART_dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahav\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahav\Downloads\ML_Lab\ML_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:GO44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4610,7 +4610,7 @@
         <v>500107862016</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>199</v>
@@ -8740,7 +8740,7 @@
         <v>8001563222016</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>199</v>
@@ -14349,7 +14349,7 @@
         <v>8001563222016</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>199</v>
